--- a/Kapanmalar.xlsx
+++ b/Kapanmalar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D3412-318C-499D-8881-D098A651F9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65473B53-F7EE-4642-8747-6DA057E4D7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="1650" windowWidth="10530" windowHeight="8040" xr2:uid="{36C32072-C265-460D-99EF-20DBAC4BD335}"/>
+    <workbookView xWindow="-4740" yWindow="4710" windowWidth="10530" windowHeight="8040" xr2:uid="{36C32072-C265-460D-99EF-20DBAC4BD335}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Austria</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Spain</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,18 +1122,25 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44525</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>43904</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>43960</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kapanmalar.xlsx
+++ b/Kapanmalar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65473B53-F7EE-4642-8747-6DA057E4D7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B21DC3E-CCEE-4DA3-80A9-DDABF3184537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4740" yWindow="4710" windowWidth="10530" windowHeight="8040" xr2:uid="{36C32072-C265-460D-99EF-20DBAC4BD335}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36C32072-C265-460D-99EF-20DBAC4BD335}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
         <v>44525</v>
       </c>
       <c r="C21" s="3">
-        <v>44174</v>
+        <v>44539</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/Kapanmalar.xlsx
+++ b/Kapanmalar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B21DC3E-CCEE-4DA3-80A9-DDABF3184537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF85DD7-E53B-472D-8737-C1D5CF686E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36C32072-C265-460D-99EF-20DBAC4BD335}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Austria</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>07.02.2021</t>
-  </si>
-  <si>
-    <t>15.11.2021</t>
-  </si>
-  <si>
-    <t>11.12.2021</t>
   </si>
   <si>
     <t>18.03.2020</t>
@@ -599,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05585C52-ED12-4267-AF6B-43A1DBD3B12B}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,11 +661,11 @@
       <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
+      <c r="H2" s="4">
+        <v>44522</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44542</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -683,28 +677,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3">
         <v>44137</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -716,28 +710,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3">
         <v>44163</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -748,28 +742,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3">
         <v>44187</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
@@ -782,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3">
         <v>44126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
@@ -810,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
@@ -819,19 +813,19 @@
         <v>44190</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2"/>
@@ -841,28 +835,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3">
         <v>44134</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="2"/>
@@ -872,29 +866,29 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
+      <c r="B9" s="4">
+        <v>43906</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43964</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -903,28 +897,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K10" s="1"/>
     </row>
@@ -1029,7 +1023,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3">
         <v>43906</v>
@@ -1041,14 +1035,14 @@
         <v>44142</v>
       </c>
       <c r="E16" s="3">
-        <v>44163</v>
+        <v>44378</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3">
         <v>43905</v>
@@ -1066,12 +1060,12 @@
         <v>44513</v>
       </c>
       <c r="G17" s="3">
-        <v>44575</v>
+        <v>44542</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3">
         <v>43903</v>
@@ -1094,7 +1088,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3">
         <v>43909</v>
@@ -1111,7 +1105,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3">
         <v>43915</v>
@@ -1122,7 +1116,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3">
         <v>44525</v>
@@ -1133,7 +1127,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3">
         <v>43904</v>
